--- a/public/documents/FORMATO_SOLICITUD_DE_PERMISO.xlsx
+++ b/public/documents/FORMATO_SOLICITUD_DE_PERMISO.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\BUKZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2EBA016-99AB-45F2-B0DA-7C6415DE6B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966468FE-B3AE-4B15-9FBD-ACF7E49B8795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud de Permiso" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,20 +51,20 @@
     <t>Firma del solicitante:</t>
   </si>
   <si>
-    <t>Tipo de permiso: (remunerado-no remunerado)</t>
-  </si>
-  <si>
     <t>SOLICITUD DE PERMISO</t>
   </si>
   <si>
-    <t>Firma de quien autoriza el permiso:</t>
+    <t>Firma y nombre de quien autoriza el permiso:</t>
+  </si>
+  <si>
+    <t>Tipo de permiso: (remunerado-no remunerado-otro)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +90,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -126,14 +137,13 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -143,12 +153,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,6 +175,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>624099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610FE5C1-8741-44FF-BDFC-21B0787A34B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784860" y="472441"/>
+          <a:ext cx="1744980" cy="464078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,158 +520,165 @@
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E13"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="2:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="F12:H13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E3:E4"/>
@@ -619,19 +692,16 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:E8"/>
-    <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B9:B11"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showDropDown="1" sqref="G3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Remunerado,No remunerado,Licencia"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>